--- a/medicine/Pharmacie/Liste_des_simples_traités_dans_le_Tractatus_de_herbis/Liste_des_simples_traités_dans_le_Tractatus_de_herbis.xlsx
+++ b/medicine/Pharmacie/Liste_des_simples_traités_dans_le_Tractatus_de_herbis/Liste_des_simples_traités_dans_le_Tractatus_de_herbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tractatus de herbis est un traité de matière médicale en latin dérivé du Circa instans et transmis par un grand nombre de manuscrits médiévaux entre le XIIIe siècle et le XVIe siècle. Il décrit plus de 500 simples, regroupés en chapitres selon leur initiale.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste des simples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les différents simples du Tractatus de herbis sont détaillés dans les sous-listes suivantes :
 Liste des simples traités dans le Tractatus de herbis : A-B
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,16 +564,54 @@
           <t>Index thématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Index alphabétique des différentes substances décrites dans le traité, classées selon les catégories figurant dans les derniers manuscrits de la tradition du Tractatus de herbis (fin du XVe siècle et début du XVIe siècle)[2]. Les points d'interrogation indiquent les identifications incertaines ou débattues.
+Index alphabétique des différentes substances décrites dans le traité, classées selon les catégories figurant dans les derniers manuscrits de la tradition du Tractatus de herbis (fin du XVe siècle et début du XVIe siècle). Les points d'interrogation indiquent les identifications incertaines ou débattues.
 			Herbes
 			Arbres, fruits et résines
 			Métaux et minéraux
 			Matières animales
 			Autres substances
-Herbes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herbes </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 A
 Absinthe : De absinthio
 Acanthe molle : De acanthum, De branca ursina
@@ -936,7 +988,43 @@
 Violette odorante : De viola
 Z
 Zédoaire : De zedoaria
-Arbres, fruits et résines 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbres, fruits et résines </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 A
 Abricot : De grisomiliis
 Amande amère : De amigdalis amaris
@@ -1055,7 +1143,43 @@
 Tamaris : De tamariscus
 Térébenthine du Pin : De terbentina
 Turbith : De turbith
-Métaux et minéraux 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métaux et minéraux </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Airain brûlé (oxyde cuivreux) : De ere usto
 Alun de potassium : De alumine
 Antimoine (stibine) : De antimonio
@@ -1086,7 +1210,43 @@
 Terre sigillée : De terra sigillata
 Vif-argent (mercure) : De argento vivo
 Vitriol : De dragganto, De vitriolo
-Matières animales 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matières animales </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ambre gris : De ambra
 Bellicule : De belliculi
 Blatte de Byzance : De blacte Bizantiis
@@ -1096,7 +1256,43 @@
 Os du cœur du Cerf : De ossis de corde cervi
 Os de seiche : De ossis sepie
 Scinque officinal : De stinco
-Autres substances 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autres substances </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amidon : De amido
 Beurre : De butyro
 Camphre : De camphora
@@ -1116,7 +1312,43 @@
 Verre : De vitro
 Vinaigre : De aceto
 Zipule : De zibullis
-Non classés 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Index thématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non classés </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Béhen blanc, Béhen rouge : De beem
 Bois de Sappan : De braxillo
 Chardon béni : De suchaa
